--- a/biology/Médecine/Bob_(lave-vaisselle)/Bob_(lave-vaisselle).xlsx
+++ b/biology/Médecine/Bob_(lave-vaisselle)/Bob_(lave-vaisselle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob est une marque de petits lave-vaisselles commercialisés par l'entreprise française Daan Tech.
 </t>
@@ -511,13 +523,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, Antoine Fichet remporte le prix Les Entrepreneuriales avec le projet Rudy[1], un concept de lave-vaisselle ultra-compact nommé Bob. Il rejoint par la suite Bpifrance, où il fait la rencontre de Damian Py en 2015.
-En août 2016, Antoine Fichet et Damian Py créent Daan Tech et développent leur premier prototype de lave-vaisselle dans la cave d'une amie parisienne. Ils sont tous deux finalistes du Prix Pépite Tremplin 2016[2]. En juillet 2017, ils rencontrent Nicolas Ravallec, Directeur Technique de S20 Industries (ancienne usine Esswein de Brandt à La-Roche-sur-Yon, en Vendée), afin de présenter leur prototype. En janvier 2018, ils s'installent dans l'usine de S20 Industries dans le but de lancer la fabrication de leur lave-vaisselle[3] en sous-traitance industrielle. La phase de prototypage est finalisée en août 2018 et ils lancent une campagne de précommande le 8 octobre 2018. En avril 2019, grâce au soutien financier d'investisseurs[4] Business Angels français, de Bpifrance, et à la vente en précommande de 6 000 unités de leur lave-vaisselle[5], ils se procurent des moules industriels pour l'injection plastique et de la main d'œuvre afin d'industrialiser le produit. En mai 2019, les concepteurs de Bob se retirent de chez S20 Industries[6], placée en redressement judiciaire fin avril 2019[7]. Ils se dotent d'une unité de fabrication en interne. Ils sont rejoints par plusieurs anciens employés de S20 Industries, dont Nicolas Ravallec en tant que Directeur Général Délégué. À la recherche d'une usine suffisamment grande pour la fabrication de leur lave-vaisselle, ils s'installent dans un premier temps à La Roche-sur-Yon, puis à Aizenay, pour finalement s'installer à Cugand en mars 2020, dans une usine de 2 600 m2. Les deux entrepreneurs lancent alors la production de Bob le 8 octobre 2020[8]. Ils accusent à ce moment un retard d'un an sur les précommandes. Les premières livraisons ont lieu en octobre 2020[9],[10].
-En juillet 2021, Bob est exposé à l'Élysée à l'occasion d'un salon sur le « made in France »[11].
-Bob est exporté ensuite en Belgique, en Allemagne, en Espagne et à Taïwan[10].
-En décembre 2022, 60 % des ventes sont réalisées à l'export[12] et 65 000 unités de Bob ont été livrées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, Antoine Fichet remporte le prix Les Entrepreneuriales avec le projet Rudy, un concept de lave-vaisselle ultra-compact nommé Bob. Il rejoint par la suite Bpifrance, où il fait la rencontre de Damian Py en 2015.
+En août 2016, Antoine Fichet et Damian Py créent Daan Tech et développent leur premier prototype de lave-vaisselle dans la cave d'une amie parisienne. Ils sont tous deux finalistes du Prix Pépite Tremplin 2016. En juillet 2017, ils rencontrent Nicolas Ravallec, Directeur Technique de S20 Industries (ancienne usine Esswein de Brandt à La-Roche-sur-Yon, en Vendée), afin de présenter leur prototype. En janvier 2018, ils s'installent dans l'usine de S20 Industries dans le but de lancer la fabrication de leur lave-vaisselle en sous-traitance industrielle. La phase de prototypage est finalisée en août 2018 et ils lancent une campagne de précommande le 8 octobre 2018. En avril 2019, grâce au soutien financier d'investisseurs Business Angels français, de Bpifrance, et à la vente en précommande de 6 000 unités de leur lave-vaisselle, ils se procurent des moules industriels pour l'injection plastique et de la main d'œuvre afin d'industrialiser le produit. En mai 2019, les concepteurs de Bob se retirent de chez S20 Industries, placée en redressement judiciaire fin avril 2019. Ils se dotent d'une unité de fabrication en interne. Ils sont rejoints par plusieurs anciens employés de S20 Industries, dont Nicolas Ravallec en tant que Directeur Général Délégué. À la recherche d'une usine suffisamment grande pour la fabrication de leur lave-vaisselle, ils s'installent dans un premier temps à La Roche-sur-Yon, puis à Aizenay, pour finalement s'installer à Cugand en mars 2020, dans une usine de 2 600 m2. Les deux entrepreneurs lancent alors la production de Bob le 8 octobre 2020. Ils accusent à ce moment un retard d'un an sur les précommandes. Les premières livraisons ont lieu en octobre 2020,.
+En juillet 2021, Bob est exposé à l'Élysée à l'occasion d'un salon sur le « made in France ».
+Bob est exporté ensuite en Belgique, en Allemagne, en Espagne et à Taïwan.
+En décembre 2022, 60 % des ventes sont réalisées à l'export et 65 000 unités de Bob ont été livrées.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bob est un lave-vaisselle de petites dimensions — 34 × 49 cm, pour 10 kg. Il fonctionne à l'aide d'une prise électrique et, contrairement à un lave-vaisselle classique, ne nécessite pas de prise d'eau ; son réservoir de 3,8 litres peut être rempli manuellement avant chaque utilisation, ou bien rempli de manière automatique avec un tuyau d'alimentation en eau standard. Sa taille lui permet de laver l'équivalent de la vaisselle quotidienne de deux personnes à la fois[13], soit 3 couverts (pour lave-vaisselle). Dans une démarche écologique et d'éco-conception, Bob est conçu à 85% de plastique recyclé[9]. Ses couleurs sont personnalisables parmi une gamme d'une douzaine de couleurs[14]. Bob est le seul lave-vaisselle fabriqué en France.[réf. nécessaire]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bob est un lave-vaisselle de petites dimensions — 34 × 49 cm, pour 10 kg. Il fonctionne à l'aide d'une prise électrique et, contrairement à un lave-vaisselle classique, ne nécessite pas de prise d'eau ; son réservoir de 3,8 litres peut être rempli manuellement avant chaque utilisation, ou bien rempli de manière automatique avec un tuyau d'alimentation en eau standard. Sa taille lui permet de laver l'équivalent de la vaisselle quotidienne de deux personnes à la fois, soit 3 couverts (pour lave-vaisselle). Dans une démarche écologique et d'éco-conception, Bob est conçu à 85% de plastique recyclé. Ses couleurs sont personnalisables parmi une gamme d'une douzaine de couleurs. Bob est le seul lave-vaisselle fabriqué en France.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bob propose plusieurs cycles de lavage. Il fonctionne avec du gel lave-vaisselle, des tablettes lave-vaisselle, ou bien à l'aide de cassettes de lavage, d'une durée de vie de 30 cycles, ainsi que de cassettes spéciales devant être utilisées tous les 90 cycles et servant au nettoyage de la machine[14]. Les cassettes de lavage ne sont pas obligatoires.
-Bob utilise des ultrasons, ce qui permet d'exploiter le phénomène de cavitation pour le nettoyage de la vaisselle[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bob propose plusieurs cycles de lavage. Il fonctionne avec du gel lave-vaisselle, des tablettes lave-vaisselle, ou bien à l'aide de cassettes de lavage, d'une durée de vie de 30 cycles, ainsi que de cassettes spéciales devant être utilisées tous les 90 cycles et servant au nettoyage de la machine. Les cassettes de lavage ne sont pas obligatoires.
+Bob utilise des ultrasons, ce qui permet d'exploiter le phénomène de cavitation pour le nettoyage de la vaisselle.
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrien Schwyter du magazine Challenges donne un avis favorable sur le silence et l'efficacité de Bob. Il note toutefois que sa taille est un obstacle au lavage de certains ustensiles de cuisine[16].	
-Sur les réseaux sociaux, certains clients se plaignent du temps de livraison des cassettes nécessaires au bon fonctionnement de la machine. Bien que l'entreprise assure que l'opération soit possible avec un produit autre que celui qu'elle fournit, la notice ne donne pas d'indications sur la procédure à suivre[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrien Schwyter du magazine Challenges donne un avis favorable sur le silence et l'efficacité de Bob. Il note toutefois que sa taille est un obstacle au lavage de certains ustensiles de cuisine.	
+Sur les réseaux sociaux, certains clients se plaignent du temps de livraison des cassettes nécessaires au bon fonctionnement de la machine. Bien que l'entreprise assure que l'opération soit possible avec un produit autre que celui qu'elle fournit, la notice ne donne pas d'indications sur la procédure à suivre.
 </t>
         </is>
       </c>
